--- a/doc/設計書・定義書/02_機能一覧_Panban_0625.xlsx
+++ b/doc/設計書・定義書/02_機能一覧_Panban_0625.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8322D0-57C1-49F4-9979-FBC0CA292D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4B08E-9024-4136-82D4-B783B57CFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -1005,6 +1005,10 @@
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudentQueSubResult_ReactionServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1333,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,18 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2004,7 +1996,7 @@
       <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" t="s">
         <v>123</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2917,7 +2909,7 @@
         <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>22</v>
@@ -2943,7 +2935,7 @@
       <c r="E48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" t="s">
         <v>131</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3195,14 +3187,7 @@
       <c r="H60"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="37"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G62" s="1"/>
@@ -3245,18 +3230,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3374,18 +3359,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/設計書・定義書/02_機能一覧_Panban_0625.xlsx
+++ b/doc/設計書・定義書/02_機能一覧_Panban_0625.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D1\doc\設計書・定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4B08E-9024-4136-82D4-B783B57CFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BDD5B-3613-4532-A6C5-0406CCCAB76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-60" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="137">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -1009,6 +1009,13 @@
   </si>
   <si>
     <t>StudentQueSubResult_ReactionServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神宮路</t>
+    <rPh sb="0" eb="3">
+      <t>ジングウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1749,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3065,7 +3072,7 @@
         <v>117</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
@@ -3092,7 +3099,7 @@
         <v>117</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>85</v>
@@ -3119,7 +3126,7 @@
         <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>113</v>
@@ -3146,7 +3153,7 @@
         <v>117</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>82</v>
@@ -3230,18 +3237,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3359,18 +3366,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E3D2C5-0B24-4214-A7DF-20239C9F6740}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E9DFB3-7FDB-4436-B2DC-1ECA55CBFD32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
